--- a/2 course/lab371/lab371.xlsx
+++ b/2 course/lab371/lab371.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/2 course/lab371/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Physics_labs\2 course\lab371\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C25EC-722A-F84B-AD5F-0C566948390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E4E7E9-7953-42AA-8A00-4A6C6B474C79}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C0FF68D4-2644-3945-A23B-82613D8EB2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>п.3</t>
   </si>
@@ -107,9 +99,6 @@
     <t>464.6</t>
   </si>
   <si>
-    <t>0.151</t>
-  </si>
-  <si>
     <t>0.194</t>
   </si>
   <si>
@@ -173,9 +162,6 @@
     <t>371.94</t>
   </si>
   <si>
-    <t>200-1100 hz</t>
-  </si>
-  <si>
     <t>100-200 hz</t>
   </si>
   <si>
@@ -330,6 +316,9 @@
   </si>
   <si>
     <t>L, mHenry</t>
+  </si>
+  <si>
+    <t>0.131</t>
   </si>
 </sst>
 </file>
@@ -397,12 +386,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,6 +393,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,41 +717,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1445859-17BF-A443-BD5F-2B0ADA9268CB}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1"/>
+    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,22 +761,22 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>467</v>
@@ -796,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -810,13 +799,13 @@
       <c r="H3" s="1">
         <v>50</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>10.37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -832,20 +821,20 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="1">
         <f>H3+100</f>
         <v>150</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>7.56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,24 +849,24 @@
         <v>0.31111111111111112</v>
       </c>
       <c r="E5" s="1">
-        <f>E4+12</f>
+        <f t="shared" ref="E5:E11" si="0">E4+12</f>
         <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H6" si="0">H4+100</f>
+        <f t="shared" ref="H5" si="1">H4+100</f>
         <v>250</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>5.63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,23 +881,23 @@
         <v>0.3</v>
       </c>
       <c r="E6" s="1">
-        <f>E5+12</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1">
         <v>400</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>4.28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,23 +912,23 @@
         <v>0.29729729729729731</v>
       </c>
       <c r="E7" s="1">
-        <f>E6+12</f>
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1">
         <v>500</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>3.86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,23 +943,23 @@
         <v>0.26470588235294118</v>
       </c>
       <c r="E8" s="1">
-        <f>E7+12</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1">
         <v>750</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>3.41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -985,23 +974,23 @@
         <v>0.25806451612903225</v>
       </c>
       <c r="E9" s="1">
-        <f>E8+12</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H9" s="1">
         <v>800</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>3.35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1017,23 +1006,23 @@
         <v>0.25</v>
       </c>
       <c r="E10" s="1">
-        <f>E9+12</f>
+        <f t="shared" si="0"/>
         <v>172</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
         <v>1000</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>3.23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,23 +1038,23 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="E11" s="1">
-        <f>E10+12</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>600</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>3.62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1084,14 +1073,19 @@
         <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1102,20 +1096,27 @@
         <f>C12+9</f>
         <v>110</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1">
+        <f>4.5/22</f>
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="E13" s="1">
+        <v>220</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I13" s="6">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1126,247 +1127,212 @@
         <f>C13+9</f>
         <v>119</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="1">
-        <f>4.5/22</f>
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="E15" s="1">
-        <v>220</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I15" s="6">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="1">
+      <c r="D14" s="1">
         <f>2.5/16</f>
         <v>0.15625</v>
       </c>
-      <c r="E16" s="1">
-        <f>E15+85</f>
+      <c r="E14" s="1">
+        <f>E13+85</f>
         <v>305</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="1">
-        <v>7500</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.0779999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="1">
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
         <f>4/31.5</f>
         <v>0.12698412698412698</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:E24" si="1">E16+85</f>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E22" si="2">E14+85</f>
         <v>390</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.1579999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="1">
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7500</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.0779999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
         <f>2.5/23</f>
         <v>0.10869565217391304</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="1">
-        <v>15000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.4729999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="1">
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.1579999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
         <f>4/44</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="1">
-        <v>16200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.5874999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="1">
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.4729999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
         <f>2.5/38</f>
         <v>6.5789473684210523E-2</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
         <v>645</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4.1020000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="1">
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1">
+        <v>16200</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.5874999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
         <f>2/33</f>
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
         <v>730</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="1">
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
         <f>1.5/30</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
         <v>815</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="1">
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
         <f>1/22</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="1">
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
         <f>0.5/25</f>
         <v>0.02</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
         <v>985</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="1">
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E25" s="1">
-        <f>E24+85</f>
+      <c r="E23" s="1">
+        <f>E22+85</f>
         <v>1070</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1">
         <v>281.87</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>1</v>
@@ -1378,252 +1344,251 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="4">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>1100</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="4">
+      <c r="F28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
         <f>2/15</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E29" s="4">
-        <f>E28+2200</f>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E37" si="3">E28+2200</f>
         <v>3300</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="4">
+      <c r="F29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="2">
         <f>4.5/22.5</f>
         <v>0.2</v>
       </c>
-      <c r="E30" s="4">
-        <f>E29+2200</f>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
         <v>5500</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="4">
+      <c r="F30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="2">
         <f>4.5/16</f>
         <v>0.28125</v>
       </c>
-      <c r="E31" s="4">
-        <f>E30+2200</f>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
         <v>7700</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="4">
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="2">
         <f>5/12.5</f>
         <v>0.4</v>
       </c>
-      <c r="E32" s="4">
-        <f>E31+2200</f>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
         <v>9900</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="4">
+      <c r="F32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="2">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="4">
-        <f>E32+2200</f>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
         <v>12100</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="4">
+      <c r="F33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="2">
         <f>4.5/8</f>
         <v>0.5625</v>
       </c>
-      <c r="E34" s="4">
-        <f>E33+2200</f>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
         <v>14300</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="4">
+      <c r="F34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="2">
         <f>4.5/7</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E35" s="4">
-        <f>E34+2200</f>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
         <v>16500</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="4">
+      <c r="F35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="2">
         <f>4.5/6</f>
         <v>0.75</v>
       </c>
-      <c r="E36" s="4">
-        <f>E35+2200</f>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
         <v>18700</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="4">
+      <c r="F36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="2">
         <f>18/23</f>
         <v>0.78260869565217395</v>
       </c>
-      <c r="E37" s="4">
-        <f>E36+2200</f>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
         <v>20900</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="4">
+      <c r="F37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="2">
         <f>17/21</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="E38" s="4">
-        <f t="shared" ref="E38:E40" si="2">E37+2200</f>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38:E40" si="4">E37+2200</f>
         <v>23100</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="4">
+      <c r="F38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="2">
         <f>17/19</f>
         <v>0.89473684210526316</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" si="2"/>
+      <c r="E39" s="2">
+        <f t="shared" si="4"/>
         <v>25300</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="F39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="4">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="2">
         <f>16/18</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="E40" s="4">
-        <f t="shared" si="2"/>
+      <c r="E40" s="2">
+        <f t="shared" si="4"/>
         <v>27500</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="2">
         <v>7.78</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="4">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="2">
         <f>15.5/16.5</f>
         <v>0.93939393939393945</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <f>E40+2200</f>
         <v>29700</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="F41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="4">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="2">
         <f>16.5/15.5</f>
         <v>1.064516129032258</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <f>E41+2200</f>
         <v>31900</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="F42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="2">
         <v>2.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
